--- a/document/优化方案.xlsx
+++ b/document/优化方案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE6AE8-DD5D-4358-B7A3-F022305DBB57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA4544-89AD-453B-9E53-3A8CB2FD36C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>登录游戏界面，不要按钮，用文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -527,6 +535,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,26 +568,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,15 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="58.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="17" customWidth="1"/>
     <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="65.75" customWidth="1"/>
   </cols>
@@ -874,18 +885,18 @@
       <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -896,11 +907,11 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="6">
@@ -911,11 +922,11 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="6">
@@ -926,11 +937,11 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="6">
@@ -941,11 +952,11 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="6">
@@ -956,11 +967,11 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="6">
@@ -971,11 +982,11 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="6"/>
@@ -986,12 +997,12 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>77</v>
+      <c r="C9" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
@@ -1001,11 +1012,11 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="6">
@@ -1016,11 +1027,11 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="6">
@@ -1031,29 +1042,29 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>65</v>
+      <c r="C13" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
@@ -1063,11 +1074,11 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="6"/>
@@ -1078,11 +1089,11 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="6"/>
@@ -1098,13 +1109,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="6">
@@ -1115,11 +1126,11 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="6">
@@ -1130,11 +1141,11 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
         <v>1</v>
@@ -1145,11 +1156,11 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="6">
@@ -1160,11 +1171,11 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="6"/>
@@ -1175,11 +1186,11 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <v>1</v>
@@ -1190,26 +1201,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="6"/>
@@ -1220,11 +1231,11 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="6">
@@ -1235,11 +1246,11 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="6">
@@ -1250,11 +1261,11 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="6"/>
@@ -1265,11 +1276,11 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="6"/>
@@ -1283,11 +1294,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="6"/>
@@ -1298,13 +1309,13 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="6"/>
@@ -1315,11 +1326,11 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="6"/>
@@ -1330,11 +1341,11 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="6"/>
@@ -1345,11 +1356,11 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="6"/>
@@ -1360,11 +1371,11 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="6"/>
@@ -1375,11 +1386,11 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="6"/>
@@ -1390,11 +1401,11 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="6"/>
@@ -1411,7 +1422,7 @@
       <c r="B36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="6">
@@ -1422,13 +1433,13 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="6">
@@ -1439,67 +1450,67 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="6">
@@ -1510,24 +1521,24 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="25" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="6"/>
@@ -1538,11 +1549,11 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="6">
@@ -1553,13 +1564,13 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="6"/>
@@ -1570,11 +1581,11 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="6"/>
@@ -1585,11 +1596,11 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="6"/>
@@ -1600,13 +1611,13 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D49" s="6"/>
@@ -1615,11 +1626,11 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="6">
@@ -1632,11 +1643,11 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D51" s="6"/>
@@ -1647,11 +1658,11 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="6"/>
@@ -1662,11 +1673,11 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="6"/>
@@ -1677,11 +1688,11 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="6"/>

--- a/document/优化方案.xlsx
+++ b/document/优化方案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA4544-89AD-453B-9E53-3A8CB2FD36C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C04A9-3351-4ADE-A6F5-6EE5BAAC67FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>登录游戏界面，不要按钮，用文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关系选择列表的功能未完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +244,6 @@
   </si>
   <si>
     <t>副武器：解锁全新副武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增过了关卡之后，显示这个战机已经解锁的功能，并且增加new的图标？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,18 +332,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增：快速向上飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,7 +348,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现还是不好516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度太慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待最终决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>516版本暂未发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现新问题，战机碰撞范围变大了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前无法量化参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以适当的在顶部增加图标闪烁动画，以配合音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -535,9 +557,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -545,9 +564,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,8 +587,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,833 +891,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="58.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="17" customWidth="1"/>
-    <col min="4" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="7.625" style="16" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="17.75" style="28" customWidth="1"/>
     <col min="8" max="8" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>38</v>
+      <c r="G1" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>78</v>
+      <c r="C2" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>78</v>
+      <c r="C3" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>78</v>
+      <c r="C4" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>78</v>
+      <c r="C5" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>78</v>
+      <c r="C6" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>48</v>
+      <c r="C7" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>84</v>
+      <c r="C9" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>1</v>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>64</v>
+      <c r="C10" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>50</v>
+      <c r="C11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1</v>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>48</v>
+      <c r="C14" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>78</v>
+      <c r="C16" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
       <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="C18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="C19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="G19" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
       <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>48</v>
+      <c r="C22" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="16">
+      <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="G22" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
+      <c r="C23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
       <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
       <c r="B25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
       <c r="B26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>48</v>
+      <c r="C29" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="F29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
       <c r="B30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+      <c r="F30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
       <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>48</v>
+      <c r="C31" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="F31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="16" t="s">
         <v>50</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>48</v>
+      <c r="C34" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="A35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>78</v>
+      <c r="B36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="C41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="C43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="6"/>
+      <c r="C44" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
+      <c r="B45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>78</v>
+      <c r="C46" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6">
         <v>1</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>78</v>
+      <c r="C47" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6">
         <v>1</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="A49" s="21"/>
       <c r="B49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
+      <c r="C50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="6">
-        <v>1</v>
+      <c r="E51" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="6"/>
@@ -1685,32 +1730,17 @@
         <v>1</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G53" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
